--- a/updateDenomList.xlsx
+++ b/updateDenomList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>BDT</t>
   </si>
@@ -26,9 +26,6 @@
   </si>
   <si>
     <t>DDT</t>
-  </si>
-  <si>
-    <t>Cid</t>
   </si>
 </sst>
 </file>
@@ -401,11 +398,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="23.290714285714284" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="20.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -424,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
